--- a/Resources/Sources/Template_Referee.xlsx
+++ b/Resources/Sources/Template_Referee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6559362D-AB4C-44D1-86D7-AB05928594CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979866A9-5F59-46F0-9837-39726B8077DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Заполнение" sheetId="1" r:id="rId1"/>
@@ -44,31 +44,6 @@
     <author>Igor @cell_laber</author>
   </authors>
   <commentList>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{8F7FFDB9-0097-4001-ADB2-CEAD8E0B3527}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Номер начинается с +, без скобок, пробелов итд…</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Igor @cell_laber</author>
-  </authors>
-  <commentList>
     <comment ref="H5" authorId="0" shapeId="0" xr:uid="{4AA61A2C-13E0-4E5A-B97C-6A3114DB5525}">
       <text>
         <r>
@@ -89,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -159,112 +134,34 @@
     <t>Проверка</t>
   </si>
   <si>
-    <t>Саяфаров</t>
+    <t>Гонтаренко</t>
   </si>
   <si>
-    <t>Валерий</t>
+    <t>Игорь</t>
   </si>
   <si>
-    <t>Сабирьянович</t>
+    <t>Алексеевич</t>
   </si>
   <si>
-    <t>Саяфаров Валерий Сабирьянович</t>
+    <t>Гонтаренко Игорь Алексеевич</t>
   </si>
   <si>
-    <t>Ершов</t>
-  </si>
-  <si>
-    <t>Александр</t>
-  </si>
-  <si>
-    <t>Валентинович</t>
-  </si>
-  <si>
-    <t>Ершов Александр Валентинович</t>
-  </si>
-  <si>
-    <t>Марченко</t>
-  </si>
-  <si>
-    <t>Юрий</t>
+    <t>Алексей</t>
   </si>
   <si>
     <t>Анатольевич</t>
   </si>
   <si>
-    <t>Марченко Юрий Анатольевич</t>
+    <t>Гонтаренко Алексей Анатольевич</t>
   </si>
   <si>
-    <t>Соловьев</t>
+    <t>Васильев</t>
   </si>
   <si>
-    <t>Вячеславович</t>
-  </si>
-  <si>
-    <t>Соловьев Александр Вячеславович</t>
-  </si>
-  <si>
-    <t>Панаков</t>
-  </si>
-  <si>
-    <t>Дивлохович</t>
-  </si>
-  <si>
-    <t>Панаков Александр Дивлохович</t>
-  </si>
-  <si>
-    <t>Ушаков</t>
-  </si>
-  <si>
-    <t>Евгеньевич</t>
-  </si>
-  <si>
-    <t>Ушаков Александр Евгеньевич</t>
-  </si>
-  <si>
-    <t>Духов</t>
-  </si>
-  <si>
-    <t>Михаил</t>
-  </si>
-  <si>
-    <t>Валерьевич</t>
-  </si>
-  <si>
-    <t>Духов Михаил Валерьевич</t>
-  </si>
-  <si>
-    <t>Алексанов</t>
-  </si>
-  <si>
-    <t>Андрей</t>
-  </si>
-  <si>
-    <t>Николаевич</t>
-  </si>
-  <si>
-    <t>Алексанов Андрей Николаевич</t>
-  </si>
-  <si>
-    <t>Пролубников</t>
-  </si>
-  <si>
-    <t>Олег</t>
-  </si>
-  <si>
-    <t>Пролубников Олег Николаевич</t>
-  </si>
-  <si>
-    <t>Битук</t>
-  </si>
-  <si>
-    <t>Евгений</t>
+    <t>Петр</t>
   </si>
   <si>
     <t>Иванович</t>
-  </si>
-  <si>
-    <t>Битук Евгений Иванович</t>
   </si>
 </sst>
 </file>
@@ -746,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -879,9 +776,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -892,9 +786,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -935,19 +826,51 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFEE0000"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF990000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEE0000"/>
+      <color rgb="FF990000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1314,11 +1237,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,52 +1254,52 @@
     <col min="7" max="7" width="29.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14.42578125" style="18" customWidth="1"/>
-    <col min="11" max="11" width="22" style="48" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="64" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="48" customWidth="1"/>
+    <col min="12" max="12" width="22" style="62" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" style="8" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
       <c r="AB2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1414,34 +1337,40 @@
       <c r="K5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="63" t="s">
         <v>21</v>
       </c>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
-      <c r="B6" s="60">
+      <c r="B6" s="58">
         <v>1</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="14"/>
+      <c r="C6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="F6" s="50"/>
       <c r="G6" s="51"/>
       <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="66" t="str">
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="64" t="str">
         <f>IF(AND(B6&lt;&gt;"",C6&lt;&gt;""),IF(IFERROR(MATCH(C6&amp;" "&amp;D6&amp;" "&amp;E6,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
-        <v/>
+        <v>✅</v>
       </c>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="61" t="str">
+      <c r="B7" s="59" t="str">
         <f t="shared" ref="B7:B54" si="0">IF(C7&amp;D7&amp;E7="","",B6+1)</f>
         <v/>
       </c>
@@ -1451,17 +1380,17 @@
       <c r="F7" s="50"/>
       <c r="G7" s="51"/>
       <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="66" t="str">
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="64" t="str">
         <f>IF(AND(B7&lt;&gt;"",C7&lt;&gt;""),IF(IFERROR(MATCH(C7&amp;" "&amp;D7&amp;" "&amp;E7,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="B8" s="61" t="str">
+      <c r="B8" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1471,17 +1400,17 @@
       <c r="F8" s="50"/>
       <c r="G8" s="51"/>
       <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="66" t="str">
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="64" t="str">
         <f>IF(AND(B8&lt;&gt;"",C8&lt;&gt;""),IF(IFERROR(MATCH(C8&amp;" "&amp;D8&amp;" "&amp;E8,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="B9" s="61" t="str">
+      <c r="B9" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1491,17 +1420,17 @@
       <c r="F9" s="50"/>
       <c r="G9" s="51"/>
       <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="66" t="str">
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="64" t="str">
         <f>IF(AND(B9&lt;&gt;"",C9&lt;&gt;""),IF(IFERROR(MATCH(C9&amp;" "&amp;D9&amp;" "&amp;E9,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-      <c r="B10" s="61" t="str">
+      <c r="B10" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1511,17 +1440,17 @@
       <c r="F10" s="50"/>
       <c r="G10" s="51"/>
       <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="66" t="str">
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="64" t="str">
         <f>IF(AND(B10&lt;&gt;"",C10&lt;&gt;""),IF(IFERROR(MATCH(C10&amp;" "&amp;D10&amp;" "&amp;E10,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="61" t="str">
+      <c r="B11" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1531,17 +1460,17 @@
       <c r="F11" s="50"/>
       <c r="G11" s="51"/>
       <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="66" t="str">
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="64" t="str">
         <f>IF(AND(B11&lt;&gt;"",C11&lt;&gt;""),IF(IFERROR(MATCH(C11&amp;" "&amp;D11&amp;" "&amp;E11,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="61" t="str">
+      <c r="B12" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1551,17 +1480,17 @@
       <c r="F12" s="50"/>
       <c r="G12" s="51"/>
       <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="66" t="str">
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="64" t="str">
         <f>IF(AND(B12&lt;&gt;"",C12&lt;&gt;""),IF(IFERROR(MATCH(C12&amp;" "&amp;D12&amp;" "&amp;E12,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="61" t="str">
+      <c r="B13" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1571,17 +1500,17 @@
       <c r="F13" s="50"/>
       <c r="G13" s="51"/>
       <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="66" t="str">
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="64" t="str">
         <f>IF(AND(B13&lt;&gt;"",C13&lt;&gt;""),IF(IFERROR(MATCH(C13&amp;" "&amp;D13&amp;" "&amp;E13,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
-      <c r="B14" s="61" t="str">
+      <c r="B14" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1591,17 +1520,17 @@
       <c r="F14" s="50"/>
       <c r="G14" s="51"/>
       <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="66" t="str">
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="64" t="str">
         <f>IF(AND(B14&lt;&gt;"",C14&lt;&gt;""),IF(IFERROR(MATCH(C14&amp;" "&amp;D14&amp;" "&amp;E14,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
-      <c r="B15" s="61" t="str">
+      <c r="B15" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1611,17 +1540,17 @@
       <c r="F15" s="50"/>
       <c r="G15" s="51"/>
       <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="66" t="str">
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="64" t="str">
         <f>IF(AND(B15&lt;&gt;"",C15&lt;&gt;""),IF(IFERROR(MATCH(C15&amp;" "&amp;D15&amp;" "&amp;E15,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="61" t="str">
+      <c r="B16" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1631,17 +1560,17 @@
       <c r="F16" s="50"/>
       <c r="G16" s="51"/>
       <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="66" t="str">
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="64" t="str">
         <f>IF(AND(B16&lt;&gt;"",C16&lt;&gt;""),IF(IFERROR(MATCH(C16&amp;" "&amp;D16&amp;" "&amp;E16,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="61" t="str">
+      <c r="B17" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1651,17 +1580,17 @@
       <c r="F17" s="50"/>
       <c r="G17" s="51"/>
       <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="66" t="str">
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="64" t="str">
         <f>IF(AND(B17&lt;&gt;"",C17&lt;&gt;""),IF(IFERROR(MATCH(C17&amp;" "&amp;D17&amp;" "&amp;E17,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="61" t="str">
+      <c r="B18" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1671,17 +1600,17 @@
       <c r="F18" s="50"/>
       <c r="G18" s="51"/>
       <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="66" t="str">
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="64" t="str">
         <f>IF(AND(B18&lt;&gt;"",C18&lt;&gt;""),IF(IFERROR(MATCH(C18&amp;" "&amp;D18&amp;" "&amp;E18,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="61" t="str">
+      <c r="B19" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1691,17 +1620,17 @@
       <c r="F19" s="50"/>
       <c r="G19" s="51"/>
       <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="66" t="str">
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="64" t="str">
         <f>IF(AND(B19&lt;&gt;"",C19&lt;&gt;""),IF(IFERROR(MATCH(C19&amp;" "&amp;D19&amp;" "&amp;E19,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="61" t="str">
+      <c r="B20" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1711,17 +1640,17 @@
       <c r="F20" s="50"/>
       <c r="G20" s="51"/>
       <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="66" t="str">
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="64" t="str">
         <f>IF(AND(B20&lt;&gt;"",C20&lt;&gt;""),IF(IFERROR(MATCH(C20&amp;" "&amp;D20&amp;" "&amp;E20,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="61" t="str">
+      <c r="B21" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1731,17 +1660,17 @@
       <c r="F21" s="50"/>
       <c r="G21" s="51"/>
       <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="66" t="str">
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="64" t="str">
         <f>IF(AND(B21&lt;&gt;"",C21&lt;&gt;""),IF(IFERROR(MATCH(C21&amp;" "&amp;D21&amp;" "&amp;E21,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="61" t="str">
+      <c r="B22" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1751,17 +1680,17 @@
       <c r="F22" s="50"/>
       <c r="G22" s="51"/>
       <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="66" t="str">
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="64" t="str">
         <f>IF(AND(B22&lt;&gt;"",C22&lt;&gt;""),IF(IFERROR(MATCH(C22&amp;" "&amp;D22&amp;" "&amp;E22,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="61" t="str">
+      <c r="B23" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1771,17 +1700,17 @@
       <c r="F23" s="50"/>
       <c r="G23" s="51"/>
       <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="66" t="str">
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="64" t="str">
         <f>IF(AND(B23&lt;&gt;"",C23&lt;&gt;""),IF(IFERROR(MATCH(C23&amp;" "&amp;D23&amp;" "&amp;E23,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="61" t="str">
+      <c r="B24" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1791,17 +1720,17 @@
       <c r="F24" s="50"/>
       <c r="G24" s="51"/>
       <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="66" t="str">
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="64" t="str">
         <f>IF(AND(B24&lt;&gt;"",C24&lt;&gt;""),IF(IFERROR(MATCH(C24&amp;" "&amp;D24&amp;" "&amp;E24,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
-      <c r="B25" s="61" t="str">
+      <c r="B25" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1811,17 +1740,17 @@
       <c r="F25" s="50"/>
       <c r="G25" s="51"/>
       <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="66" t="str">
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="64" t="str">
         <f>IF(AND(B25&lt;&gt;"",C25&lt;&gt;""),IF(IFERROR(MATCH(C25&amp;" "&amp;D25&amp;" "&amp;E25,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
-      <c r="B26" s="61" t="str">
+      <c r="B26" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1831,17 +1760,17 @@
       <c r="F26" s="50"/>
       <c r="G26" s="51"/>
       <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="66" t="str">
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="64" t="str">
         <f>IF(AND(B26&lt;&gt;"",C26&lt;&gt;""),IF(IFERROR(MATCH(C26&amp;" "&amp;D26&amp;" "&amp;E26,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
-      <c r="B27" s="61" t="str">
+      <c r="B27" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1851,16 +1780,16 @@
       <c r="F27" s="50"/>
       <c r="G27" s="51"/>
       <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="66" t="str">
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="64" t="str">
         <f>IF(AND(B27&lt;&gt;"",C27&lt;&gt;""),IF(IFERROR(MATCH(C27&amp;" "&amp;D27&amp;" "&amp;E27,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="61" t="str">
+      <c r="B28" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1870,16 +1799,16 @@
       <c r="F28" s="50"/>
       <c r="G28" s="51"/>
       <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="66" t="str">
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="64" t="str">
         <f>IF(AND(B28&lt;&gt;"",C28&lt;&gt;""),IF(IFERROR(MATCH(C28&amp;" "&amp;D28&amp;" "&amp;E28,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="61" t="str">
+      <c r="B29" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1889,16 +1818,16 @@
       <c r="F29" s="50"/>
       <c r="G29" s="51"/>
       <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="66" t="str">
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="64" t="str">
         <f>IF(AND(B29&lt;&gt;"",C29&lt;&gt;""),IF(IFERROR(MATCH(C29&amp;" "&amp;D29&amp;" "&amp;E29,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="61" t="str">
+      <c r="B30" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1908,16 +1837,16 @@
       <c r="F30" s="50"/>
       <c r="G30" s="51"/>
       <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="66" t="str">
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="64" t="str">
         <f>IF(AND(B30&lt;&gt;"",C30&lt;&gt;""),IF(IFERROR(MATCH(C30&amp;" "&amp;D30&amp;" "&amp;E30,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="61" t="str">
+      <c r="B31" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1927,16 +1856,16 @@
       <c r="F31" s="50"/>
       <c r="G31" s="51"/>
       <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="66" t="str">
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="64" t="str">
         <f>IF(AND(B31&lt;&gt;"",C31&lt;&gt;""),IF(IFERROR(MATCH(C31&amp;" "&amp;D31&amp;" "&amp;E31,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="61" t="str">
+      <c r="B32" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1946,16 +1875,16 @@
       <c r="F32" s="50"/>
       <c r="G32" s="51"/>
       <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="66" t="str">
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="64" t="str">
         <f>IF(AND(B32&lt;&gt;"",C32&lt;&gt;""),IF(IFERROR(MATCH(C32&amp;" "&amp;D32&amp;" "&amp;E32,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="61" t="str">
+      <c r="B33" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1965,16 +1894,16 @@
       <c r="F33" s="50"/>
       <c r="G33" s="51"/>
       <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="66" t="str">
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="64" t="str">
         <f>IF(AND(B33&lt;&gt;"",C33&lt;&gt;""),IF(IFERROR(MATCH(C33&amp;" "&amp;D33&amp;" "&amp;E33,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="61" t="str">
+      <c r="B34" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1984,16 +1913,16 @@
       <c r="F34" s="50"/>
       <c r="G34" s="51"/>
       <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="66" t="str">
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="64" t="str">
         <f>IF(AND(B34&lt;&gt;"",C34&lt;&gt;""),IF(IFERROR(MATCH(C34&amp;" "&amp;D34&amp;" "&amp;E34,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="61" t="str">
+      <c r="B35" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2003,16 +1932,16 @@
       <c r="F35" s="50"/>
       <c r="G35" s="51"/>
       <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="66" t="str">
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="64" t="str">
         <f>IF(AND(B35&lt;&gt;"",C35&lt;&gt;""),IF(IFERROR(MATCH(C35&amp;" "&amp;D35&amp;" "&amp;E35,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="61" t="str">
+      <c r="B36" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2022,16 +1951,16 @@
       <c r="F36" s="50"/>
       <c r="G36" s="51"/>
       <c r="H36" s="52"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="66" t="str">
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="64" t="str">
         <f>IF(AND(B36&lt;&gt;"",C36&lt;&gt;""),IF(IFERROR(MATCH(C36&amp;" "&amp;D36&amp;" "&amp;E36,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="61" t="str">
+      <c r="B37" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2041,16 +1970,16 @@
       <c r="F37" s="50"/>
       <c r="G37" s="51"/>
       <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="66" t="str">
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="64" t="str">
         <f>IF(AND(B37&lt;&gt;"",C37&lt;&gt;""),IF(IFERROR(MATCH(C37&amp;" "&amp;D37&amp;" "&amp;E37,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="61" t="str">
+      <c r="B38" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2060,16 +1989,16 @@
       <c r="F38" s="50"/>
       <c r="G38" s="51"/>
       <c r="H38" s="52"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="66" t="str">
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="64" t="str">
         <f>IF(AND(B38&lt;&gt;"",C38&lt;&gt;""),IF(IFERROR(MATCH(C38&amp;" "&amp;D38&amp;" "&amp;E38,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="61" t="str">
+      <c r="B39" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2079,16 +2008,16 @@
       <c r="F39" s="50"/>
       <c r="G39" s="51"/>
       <c r="H39" s="52"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="66" t="str">
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="64" t="str">
         <f>IF(AND(B39&lt;&gt;"",C39&lt;&gt;""),IF(IFERROR(MATCH(C39&amp;" "&amp;D39&amp;" "&amp;E39,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="61" t="str">
+      <c r="B40" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2098,16 +2027,16 @@
       <c r="F40" s="50"/>
       <c r="G40" s="51"/>
       <c r="H40" s="52"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="66" t="str">
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="64" t="str">
         <f>IF(AND(B40&lt;&gt;"",C40&lt;&gt;""),IF(IFERROR(MATCH(C40&amp;" "&amp;D40&amp;" "&amp;E40,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="61" t="str">
+      <c r="B41" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2117,16 +2046,16 @@
       <c r="F41" s="50"/>
       <c r="G41" s="51"/>
       <c r="H41" s="52"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="66" t="str">
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="64" t="str">
         <f>IF(AND(B41&lt;&gt;"",C41&lt;&gt;""),IF(IFERROR(MATCH(C41&amp;" "&amp;D41&amp;" "&amp;E41,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="61" t="str">
+      <c r="B42" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2136,16 +2065,16 @@
       <c r="F42" s="50"/>
       <c r="G42" s="51"/>
       <c r="H42" s="52"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="66" t="str">
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="64" t="str">
         <f>IF(AND(B42&lt;&gt;"",C42&lt;&gt;""),IF(IFERROR(MATCH(C42&amp;" "&amp;D42&amp;" "&amp;E42,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="61" t="str">
+      <c r="B43" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2155,16 +2084,16 @@
       <c r="F43" s="50"/>
       <c r="G43" s="51"/>
       <c r="H43" s="52"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="66" t="str">
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="64" t="str">
         <f>IF(AND(B43&lt;&gt;"",C43&lt;&gt;""),IF(IFERROR(MATCH(C43&amp;" "&amp;D43&amp;" "&amp;E43,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="61" t="str">
+      <c r="B44" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2174,16 +2103,16 @@
       <c r="F44" s="50"/>
       <c r="G44" s="51"/>
       <c r="H44" s="52"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="66" t="str">
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="64" t="str">
         <f>IF(AND(B44&lt;&gt;"",C44&lt;&gt;""),IF(IFERROR(MATCH(C44&amp;" "&amp;D44&amp;" "&amp;E44,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="61" t="str">
+      <c r="B45" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2193,16 +2122,16 @@
       <c r="F45" s="50"/>
       <c r="G45" s="51"/>
       <c r="H45" s="52"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="66" t="str">
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="64" t="str">
         <f>IF(AND(B45&lt;&gt;"",C45&lt;&gt;""),IF(IFERROR(MATCH(C45&amp;" "&amp;D45&amp;" "&amp;E45,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="61" t="str">
+      <c r="B46" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2212,16 +2141,16 @@
       <c r="F46" s="50"/>
       <c r="G46" s="51"/>
       <c r="H46" s="52"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="66" t="str">
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="64" t="str">
         <f>IF(AND(B46&lt;&gt;"",C46&lt;&gt;""),IF(IFERROR(MATCH(C46&amp;" "&amp;D46&amp;" "&amp;E46,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="61" t="str">
+      <c r="B47" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2231,16 +2160,16 @@
       <c r="F47" s="50"/>
       <c r="G47" s="51"/>
       <c r="H47" s="52"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="66" t="str">
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="64" t="str">
         <f>IF(AND(B47&lt;&gt;"",C47&lt;&gt;""),IF(IFERROR(MATCH(C47&amp;" "&amp;D47&amp;" "&amp;E47,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="61" t="str">
+      <c r="B48" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2250,16 +2179,16 @@
       <c r="F48" s="50"/>
       <c r="G48" s="51"/>
       <c r="H48" s="52"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="66" t="str">
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="64" t="str">
         <f>IF(AND(B48&lt;&gt;"",C48&lt;&gt;""),IF(IFERROR(MATCH(C48&amp;" "&amp;D48&amp;" "&amp;E48,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="61" t="str">
+      <c r="B49" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2269,16 +2198,16 @@
       <c r="F49" s="50"/>
       <c r="G49" s="51"/>
       <c r="H49" s="52"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="66" t="str">
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="64" t="str">
         <f>IF(AND(B49&lt;&gt;"",C49&lt;&gt;""),IF(IFERROR(MATCH(C49&amp;" "&amp;D49&amp;" "&amp;E49,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="61" t="str">
+      <c r="B50" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2288,16 +2217,16 @@
       <c r="F50" s="50"/>
       <c r="G50" s="51"/>
       <c r="H50" s="52"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="66" t="str">
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="64" t="str">
         <f>IF(AND(B50&lt;&gt;"",C50&lt;&gt;""),IF(IFERROR(MATCH(C50&amp;" "&amp;D50&amp;" "&amp;E50,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="61" t="str">
+      <c r="B51" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2307,16 +2236,16 @@
       <c r="F51" s="50"/>
       <c r="G51" s="51"/>
       <c r="H51" s="52"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="66" t="str">
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="64" t="str">
         <f>IF(AND(B51&lt;&gt;"",C51&lt;&gt;""),IF(IFERROR(MATCH(C51&amp;" "&amp;D51&amp;" "&amp;E51,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="61" t="str">
+      <c r="B52" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2326,16 +2255,16 @@
       <c r="F52" s="50"/>
       <c r="G52" s="51"/>
       <c r="H52" s="52"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="66" t="str">
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="64" t="str">
         <f>IF(AND(B52&lt;&gt;"",C52&lt;&gt;""),IF(IFERROR(MATCH(C52&amp;" "&amp;D52&amp;" "&amp;E52,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="61" t="str">
+      <c r="B53" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2345,29 +2274,29 @@
       <c r="F53" s="50"/>
       <c r="G53" s="51"/>
       <c r="H53" s="52"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="66" t="str">
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="64" t="str">
         <f>IF(AND(B53&lt;&gt;"",C53&lt;&gt;""),IF(IFERROR(MATCH(C53&amp;" "&amp;D53&amp;" "&amp;E53,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="62" t="str">
+      <c r="B54" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="13"/>
       <c r="E54" s="15"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="66" t="str">
+      <c r="F54" s="54"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="64" t="str">
         <f>IF(AND(B54&lt;&gt;"",C54&lt;&gt;""),IF(IFERROR(MATCH(C54&amp;" "&amp;D54&amp;" "&amp;E54,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
         <v/>
       </c>
@@ -2377,8 +2306,8 @@
     <mergeCell ref="B1:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Уже существует"</formula>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Уже существует">
+      <formula>NOT(ISERROR(SEARCH("Уже существует",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -2392,17 +2321,16 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657AFBA1-F3EC-4CF2-9738-0B223AFFD495}">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,20 +2342,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="61" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2436,139 +2364,27 @@
         <v>22</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2605,36 +2421,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
@@ -2678,7 +2494,7 @@
       </c>
       <c r="B6" s="26" t="str">
         <f>IF(Заполнение!C6&lt;&gt;"",Заполнение!C6,"")</f>
-        <v/>
+        <v>Васильев</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>15</v>
@@ -3557,45 +3373,45 @@
       <c r="F32" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70" t="s">
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="70"/>
+      <c r="H34" s="68"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70" t="s">
+      <c r="A35" s="69"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="70"/>
+      <c r="H35" s="68"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="71" t="s">
+      <c r="A36" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70" t="str">
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68" t="str">
         <f ca="1">"Дата: " &amp; TEXT(TODAY(),"ДД.ММ.ГГГГ")</f>
-        <v>Дата: 21.03.2023</v>
-      </c>
-      <c r="H36" s="70"/>
+        <v>Дата: 23.03.2023</v>
+      </c>
+      <c r="H36" s="68"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F37" s="2"/>

--- a/Resources/Sources/Template_Referee.xlsx
+++ b/Resources/Sources/Template_Referee.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Igor\Programming\Femida_v3\Resources\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979866A9-5F59-46F0-9837-39726B8077DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E05C511-A170-4470-9990-0DEAFD6DC256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24915" yWindow="3840" windowWidth="21600" windowHeight="11295" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Заполнение" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>№</t>
   </si>
@@ -132,36 +132,6 @@
   </si>
   <si>
     <t>Проверка</t>
-  </si>
-  <si>
-    <t>Гонтаренко</t>
-  </si>
-  <si>
-    <t>Игорь</t>
-  </si>
-  <si>
-    <t>Алексеевич</t>
-  </si>
-  <si>
-    <t>Гонтаренко Игорь Алексеевич</t>
-  </si>
-  <si>
-    <t>Алексей</t>
-  </si>
-  <si>
-    <t>Анатольевич</t>
-  </si>
-  <si>
-    <t>Гонтаренко Алексей Анатольевич</t>
-  </si>
-  <si>
-    <t>Васильев</t>
-  </si>
-  <si>
-    <t>Петр</t>
-  </si>
-  <si>
-    <t>Иванович</t>
   </si>
 </sst>
 </file>
@@ -826,36 +796,12 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <color rgb="FFEE0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF990000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1240,9 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1347,15 +1291,9 @@
       <c r="B6" s="58">
         <v>1</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="50"/>
       <c r="G6" s="51"/>
       <c r="H6" s="52"/>
@@ -1364,7 +1302,7 @@
       <c r="K6" s="53"/>
       <c r="L6" s="64" t="str">
         <f>IF(AND(B6&lt;&gt;"",C6&lt;&gt;""),IF(IFERROR(MATCH(C6&amp;" "&amp;D6&amp;" "&amp;E6,Лист1!E:E,0),"✅")="✅","✅","Уже существует"),"")</f>
-        <v>✅</v>
+        <v/>
       </c>
       <c r="N6" s="1"/>
     </row>
@@ -2327,10 +2265,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657AFBA1-F3EC-4CF2-9738-0B223AFFD495}">
-  <dimension ref="B2:E5"/>
+  <dimension ref="B2:D3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2341,14 +2279,14 @@
     <col min="6" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="66" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
         <v>20</v>
       </c>
@@ -2357,34 +2295,6 @@
       </c>
       <c r="D3" s="61" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2494,7 +2404,7 @@
       </c>
       <c r="B6" s="26" t="str">
         <f>IF(Заполнение!C6&lt;&gt;"",Заполнение!C6,"")</f>
-        <v>Васильев</v>
+        <v/>
       </c>
       <c r="C6" s="27" t="s">
         <v>15</v>
@@ -3409,7 +3319,7 @@
       <c r="F36" s="68"/>
       <c r="G36" s="68" t="str">
         <f ca="1">"Дата: " &amp; TEXT(TODAY(),"ДД.ММ.ГГГГ")</f>
-        <v>Дата: 23.03.2023</v>
+        <v>Дата: 25.03.2023</v>
       </c>
       <c r="H36" s="68"/>
     </row>
